--- a/simulation/one-taxi/output/按天数比较集中与推荐/对比-完成的所有订单数.xlsx
+++ b/simulation/one-taxi/output/按天数比较集中与推荐/对比-完成的所有订单数.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{747B4BD4-F1ED-4F2F-BA34-DC82D6F460CB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13186774-160E-45CB-A9D6-1F7641C7771A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
     <t>DQN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,6 +50,10 @@
   </si>
   <si>
     <t>UnSat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7364,10 +7368,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7486,15 +7490,41 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
+      <c r="B9">
+        <f>SUM(B2:B8)</f>
+        <v>266</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:D9" si="0">SUM(C2:C8)</f>
+        <v>217.19</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>199.48200628982073</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="1">
+        <f>(B9-C9)/C9</f>
+        <v>0.22473410378010039</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" ref="C11:D11" si="1">(C9-D9)/D9</f>
+        <v>8.8769879747709751E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <f>(B9-D9)/D9</f>
+        <v>0.33345360289557896</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/simulation/one-taxi/output/按天数比较集中与推荐/对比-完成的所有订单数.xlsx
+++ b/simulation/one-taxi/output/按天数比较集中与推荐/对比-完成的所有订单数.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13186774-160E-45CB-A9D6-1F7641C7771A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FBE776-8EDD-4685-9CAA-997B597FBB96}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3930" yWindow="855" windowWidth="23625" windowHeight="13065" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="3" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>DQN</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,16 +45,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>All</t>
+    <t>计算</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UnSat</t>
+    <t>Edge-DQN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>计算</t>
+    <t>Centralized Dispatch</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centralized Dispatch(Saturated)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tues</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wed</t>
+  </si>
+  <si>
+    <t>Thur</t>
+  </si>
+  <si>
+    <t>Fri</t>
+  </si>
+  <si>
+    <t>Sat</t>
+  </si>
+  <si>
+    <t>Sun</t>
   </si>
 </sst>
 </file>
@@ -2942,79 +2969,11 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="zh-CN"/>
-              <a:t>司机</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>每天完成的订单数</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>-</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>日期</a:t>
-            </a:r>
-            <a:endParaRPr lang="zh-CN"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:radarChart>
+        <c:radarStyle val="marker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -3025,13 +2984,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>DQN</c:v>
+                  <c:v>Edge-DQN</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -3040,49 +2999,36 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet2!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Mon</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Tues</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>Wed</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>Thur</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>Fri</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>Sat</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Sun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3114,7 +3060,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8A86-4020-957B-625E177FE7C3}"/>
@@ -3130,13 +3075,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>UnSat</c:v>
+                  <c:v>Centralized Dispatch</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -3145,49 +3090,36 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet2!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Mon</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Tues</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>Wed</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>Thur</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>Fri</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>Sat</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Sun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3219,7 +3151,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-8A86-4020-957B-625E177FE7C3}"/>
@@ -3235,13 +3166,13 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>All</c:v>
+                  <c:v>Centralized Dispatch(Saturated)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -3250,49 +3181,36 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
+            <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:numRef>
+            <c:strRef>
               <c:f>Sheet2!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>Mon</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>Tues</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>Wed</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>Thur</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>Fri</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>Sat</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>Sun</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3324,7 +3242,6 @@
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-8A86-4020-957B-625E177FE7C3}"/>
@@ -3339,11 +3256,9 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
         <c:axId val="713456239"/>
         <c:axId val="71492879"/>
-      </c:lineChart>
+      </c:radarChart>
       <c:catAx>
         <c:axId val="713456239"/>
         <c:scaling>
@@ -3351,74 +3266,21 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>运行天数</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>单位：天</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>)</a:t>
-                </a:r>
-                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
+        <c:majorGridlines>
           <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="zh-CN"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3427,7 +3289,7 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
+              <a:schemeClr val="dk1">
                 <a:lumMod val="15000"/>
                 <a:lumOff val="85000"/>
               </a:schemeClr>
@@ -3441,9 +3303,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -3474,9 +3336,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="15000"/>
                   <a:lumOff val="85000"/>
+                  <a:alpha val="54000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3491,9 +3354,9 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:schemeClr val="dk1">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:schemeClr>
@@ -3504,22 +3367,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="zh-CN" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                    <a:effectLst/>
-                  </a:rPr>
-                  <a:t>司机每天完成的订单数</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>(</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="zh-CN" altLang="en-US"/>
-                  <a:t>单位：个</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" altLang="zh-CN"/>
-                  <a:t>)</a:t>
+                  <a:t>Order Quantity</a:t>
                 </a:r>
                 <a:endParaRPr lang="zh-CN" altLang="en-US"/>
               </a:p>
@@ -3538,9 +3387,9 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:schemeClr val="dk1">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
                     </a:schemeClr>
@@ -3570,9 +3419,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
+                  <a:schemeClr val="dk1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
@@ -3590,15 +3439,24 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
-        <a:noFill/>
-        <a:ln>
+        <a:pattFill prst="ltDnDiag">
+          <a:fgClr>
+            <a:srgbClr val="000000">
+              <a:alpha val="0"/>
+            </a:srgbClr>
+          </a:fgClr>
+          <a:bgClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:bgClr>
+        </a:pattFill>
+        <a:ln w="25400">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3612,9 +3470,9 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
+                <a:schemeClr val="dk1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
@@ -3641,11 +3499,11 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3659,7 +3517,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1400"/>
+        <a:defRPr/>
       </a:pPr>
       <a:endParaRPr lang="zh-CN"/>
     </a:p>
@@ -4825,25 +4683,25 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="232">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -4851,7 +4709,30 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -4860,36 +4741,13 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="75000"/>
         <a:lumOff val="25000"/>
       </a:schemeClr>
@@ -4926,35 +4784,45 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -4966,30 +4834,34 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="15875">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5005,16 +4877,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5022,7 +4893,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="800" kern="1200"/>
   </cs:dataTable>
   <cs:downBar>
     <cs:lnRef idx="0"/>
@@ -5034,17 +4905,18 @@
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -5053,12 +4925,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -5072,14 +4944,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5091,13 +4963,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
@@ -5105,14 +4984,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
+            <a:alpha val="54000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5124,14 +5004,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+            <a:alpha val="51000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5143,14 +5024,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -5162,12 +5043,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -5181,35 +5062,53 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:plotArea3D>
   <cs:seriesAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -5221,12 +5120,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
@@ -5239,13 +5138,13 @@
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+    <cs:fontRef idx="major">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5254,14 +5153,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5270,7 +5168,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -5288,13 +5186,14 @@
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5303,7 +5202,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="dk1">
         <a:lumMod val="65000"/>
         <a:lumOff val="35000"/>
       </a:schemeClr>
@@ -5315,13 +5214,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
+      <a:pattFill prst="ltDnDiag">
+        <a:fgClr>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
     </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
@@ -5413,15 +5319,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>523874</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590549</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>66674</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7371,7 +7277,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -7381,18 +7287,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
-        <v>1</v>
+      <c r="A2" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B2" s="1">
         <v>33</v>
@@ -7405,8 +7311,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>31</v>
@@ -7419,8 +7325,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>10</v>
       </c>
       <c r="B4" s="1">
         <v>50</v>
@@ -7433,8 +7339,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>11</v>
       </c>
       <c r="B5" s="1">
         <v>44</v>
@@ -7447,8 +7353,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>12</v>
       </c>
       <c r="B6" s="1">
         <v>45</v>
@@ -7461,8 +7367,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>33</v>
@@ -7475,8 +7381,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>30</v>
@@ -7511,14 +7417,14 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1">
         <f>(B9-C9)/C9</f>
         <v>0.22473410378010039</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" ref="C11:D11" si="1">(C9-D9)/D9</f>
+        <f t="shared" ref="C11" si="1">(C9-D9)/D9</f>
         <v>8.8769879747709751E-2</v>
       </c>
       <c r="D11" s="1">
